--- a/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/BPA_Muscle_Data.xlsx
+++ b/Code/Matlab/Solutions/Main/Precomputed_Network_Simulation/BPA_Muscle_Data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Solutions\Main\Precomputed_Network_Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91FF90-28BB-42FB-86AF-C37DCCE6DE17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A296F0-98F5-4BA5-B217-FF9383FF65C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8283C3B-726E-42DF-9D00-E4815286CCF6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8283C3B-726E-42DF-9D00-E4815286CCF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,12 +153,6 @@
     <t>Scapula</t>
   </si>
   <si>
-    <t>Extensor</t>
-  </si>
-  <si>
-    <t>Flexor</t>
-  </si>
-  <si>
     <t>Shoulder</t>
   </si>
   <si>
@@ -188,13 +181,19 @@
   </si>
   <si>
     <t>Resting Muscle Length</t>
+  </si>
+  <si>
+    <t>Ext</t>
+  </si>
+  <si>
+    <t>Flx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,16 +201,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,27 +263,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,10 +709,11 @@
   <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5715" ySplit="1200" topLeftCell="U4" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AS29" sqref="AS29"/>
+      <pane xSplit="5715" ySplit="1200" topLeftCell="AD4" activePane="bottomLeft"/>
+      <selection activeCell="H1" sqref="A1:XFD14"/>
+      <selection pane="topRight" activeCell="AV1" sqref="AV1"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,4118 +744,4118 @@
     <col min="41" max="41" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:47" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+    </row>
+    <row r="2" spans="1:47" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU2" s="40"/>
+    </row>
+    <row r="3" spans="1:47" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU3" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>450</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>620528</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="N4" s="2">
         <v>13</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2" s="3"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>450</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>620528</v>
-      </c>
-      <c r="M4">
-        <v>0.16</v>
-      </c>
-      <c r="N4">
-        <v>13</v>
-      </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f>0.0254*N4</f>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>13</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <f>0.0254*P4</f>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>254300</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="3">
         <v>192000</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>2.0265</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="3">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="3">
         <v>1230</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="3">
         <v>15600</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
         <v>6.4375</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <f>0.0254*AB4</f>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>1.6875</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="2">
         <f>0.0254*AD4</f>
         <v>4.2862499999999998E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="2">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="2">
         <f>0.0254*AF4</f>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
         <v>-6.4375</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="2">
         <f>0.0254*AI4</f>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="2">
         <v>1.6875</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="2">
         <f>0.0254*AK4</f>
         <v>4.2862499999999998E-2</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="2">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="2">
         <f>0.0254*AM4</f>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="2">
         <v>1</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="2">
         <v>-9.5625</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="2">
         <f>0.0254*AP4</f>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="2">
         <v>0.75</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="2">
         <f>0.0254*AR4</f>
         <v>1.9049999999999997E-2</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="2">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="2">
         <f>0.0254*AT4</f>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <f>A4+1</f>
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>450</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>620528</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>13</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <f t="shared" ref="O5:Q27" si="0">0.0254*N5</f>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
         <v>254300</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="6">
         <v>192000</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="5">
         <v>2.0265</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="5">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="6">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="6">
         <v>1230</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="6">
         <v>15600</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5">
         <v>6.4375</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="5">
         <f t="shared" ref="AC5:AC27" si="1">0.0254*AB5</f>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="5">
         <f>AD4-0.875</f>
         <v>0.8125</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="5">
         <f t="shared" ref="AE5:AE27" si="2">0.0254*AD5</f>
         <v>2.06375E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="5">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="5">
         <f t="shared" ref="AG5:AG27" si="3">0.0254*AF5</f>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5">
         <v>-6.4375</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="5">
         <f t="shared" ref="AJ5:AJ27" si="4">0.0254*AI5</f>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="5">
         <f>AD5</f>
         <v>0.8125</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="5">
         <f t="shared" ref="AL5:AL27" si="5">0.0254*AK5</f>
         <v>2.06375E-2</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="5">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="5">
         <f t="shared" ref="AN5:AN27" si="6">0.0254*AM5</f>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="5">
         <v>1</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="5">
         <v>-9.5625</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="5">
         <f t="shared" ref="AQ5:AQ27" si="7">0.0254*AP5</f>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="5">
         <f>AR4+1</f>
         <v>1.75</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="5">
         <f t="shared" ref="AS5:AS27" si="8">0.0254*AR5</f>
         <v>4.4449999999999996E-2</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="5">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="5">
         <f t="shared" ref="AU5:AU27" si="9">0.0254*AT5</f>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <f t="shared" ref="A6:A27" si="10">A5+1</f>
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>450</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>620528</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.16</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>5.125</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <v>5.125</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
         <v>254300</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="6">
         <v>192000</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="5">
         <v>2.0265</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="5">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="6">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="6">
         <v>1230</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="6">
         <v>15600</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="5">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="5">
         <v>-10.504250000000001</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="5">
         <f t="shared" si="1"/>
         <v>-0.26680795000000002</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="5">
         <f t="shared" si="2"/>
         <v>5.8419999999999993E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="5">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>1</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="5">
         <f>AB6</f>
         <v>-10.504250000000001</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="5">
         <f t="shared" si="4"/>
         <v>-0.26680795000000002</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="5">
         <v>-4.5625</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="5">
         <f t="shared" si="5"/>
         <v>-0.11588749999999999</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="5">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="5">
         <v>2</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="5">
         <v>-10.375</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="5">
         <f t="shared" si="7"/>
         <v>-0.26352500000000001</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="5">
         <v>-5.3125</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="5">
         <f t="shared" si="8"/>
         <v>-0.13493749999999999</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="5">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>450</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>620528</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.16</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>5.125</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>5.125</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
         <v>254300</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="6">
         <v>192000</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="5">
         <v>2.0265</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="5">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="6">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="6">
         <v>1230</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="6">
         <v>15600</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="5">
         <v>1</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="5">
         <v>-8.6207499999999992</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="5">
         <f t="shared" si="1"/>
         <v>-0.21896704999999997</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="5">
         <f t="shared" si="2"/>
         <v>5.8419999999999993E-2</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="5">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="5">
         <v>1</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="5">
         <v>-8.6207499999999992</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="5">
         <f t="shared" si="4"/>
         <v>-0.21896704999999997</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="5">
         <v>-4.5625</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="5">
         <f t="shared" si="5"/>
         <v>-0.11588749999999999</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="5">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="5">
         <v>2</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="5">
         <v>-9.5625</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="5">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="5">
         <v>-5.9455</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="5">
         <f t="shared" si="8"/>
         <v>-0.1510157</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="5">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <v>450</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>620528</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.16</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>6.5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <f t="shared" si="0"/>
         <v>0.1651</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>6.5</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="5">
         <f t="shared" si="0"/>
         <v>0.1651</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
         <v>254300</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="6">
         <v>192000</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="5">
         <v>2.0265</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="5">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="6">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="6">
         <v>1230</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="6">
         <v>15600</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="5">
         <v>3</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="5">
         <v>-8.6209989999999994</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="5">
         <f t="shared" si="1"/>
         <v>-0.21897337459999996</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="5">
         <v>-12.1875</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="5">
         <f t="shared" si="2"/>
         <v>-0.30956249999999996</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="5">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="5">
         <v>3</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="5">
         <v>-8.6209989999999994</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="5">
         <f t="shared" si="4"/>
         <v>-0.21897337459999996</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="5">
         <v>-20.375</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="5">
         <f t="shared" si="5"/>
         <v>-0.51752500000000001</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="5">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="5">
         <v>4</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="5">
         <v>-8.75</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="5">
         <f t="shared" si="7"/>
         <v>-0.22225</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="5">
         <v>-21.125</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="5">
         <f t="shared" si="8"/>
         <v>-0.53657500000000002</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="5">
         <v>4.0625</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="5">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:47" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="E9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>450</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
         <v>620528</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>0.16</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="8">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="8">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <v>254300</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="9">
         <v>192000</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="8">
         <v>2.0265</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="8">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="9">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="9">
         <v>1230</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="9">
         <v>15600</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="8">
         <v>3</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="8">
         <v>-10.40625</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="8">
         <f t="shared" si="1"/>
         <v>-0.26431874999999999</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="8">
         <v>-13.651913</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="8">
         <f t="shared" si="2"/>
         <v>-0.34675859019999999</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="8">
         <v>4.0625</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="8">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="8">
         <v>3</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="8">
         <v>-10.40625</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="8">
         <f t="shared" si="4"/>
         <v>-0.26431874999999999</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="8">
         <v>-20.375</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="8">
         <f t="shared" si="5"/>
         <v>-0.51752500000000001</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="8">
         <v>4.0625</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="8">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="8">
         <v>4</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="8">
         <v>-9.5625</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="8">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="8">
         <v>-21.757999999999999</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="8">
         <f t="shared" si="8"/>
         <v>-0.55265319999999996</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="8">
         <v>4.0625</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="8">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="D10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
         <v>450</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
         <v>620528</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="11">
         <v>0.16</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="11">
         <v>13</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="11">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="11">
         <v>13</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="11">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
         <v>254300</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="12">
         <v>192000</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="11">
         <v>2.0265</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="11">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="12">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="12">
         <v>1230</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="12">
         <v>15600</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
         <v>-6.4375</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="11">
         <f t="shared" si="1"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="11">
         <v>-1.6875</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="11">
         <f t="shared" si="2"/>
         <v>-4.2862499999999998E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="11">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="11">
         <f t="shared" si="3"/>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
+      <c r="AH10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="11">
         <v>6.4375</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="11">
         <f t="shared" si="4"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="11">
         <v>-1.6875</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="11">
         <f t="shared" si="5"/>
         <v>-4.2862499999999998E-2</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="11">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="11">
         <f t="shared" si="6"/>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AO10">
-        <v>5</v>
-      </c>
-      <c r="AP10">
+      <c r="AO10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="11">
         <v>9.5625</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="11">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="11">
         <v>-0.75</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="11">
         <f t="shared" si="8"/>
         <v>-1.9049999999999997E-2</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="11">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="11">
         <f t="shared" si="9"/>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="D11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
         <v>450</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
         <v>620528</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="14">
         <v>0.16</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="14">
         <v>13</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="14">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="14">
         <v>13</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="14">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
         <v>254300</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="15">
         <v>192000</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="14">
         <v>2.0265</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="14">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="15">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="15">
         <v>1230</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="15">
         <v>15600</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
         <v>-6.4375</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="14">
         <f t="shared" si="1"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="14">
         <v>-0.8125</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="14">
         <f t="shared" si="2"/>
         <v>-2.06375E-2</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="14">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="14">
         <f t="shared" si="3"/>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
+      <c r="AH11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="14">
         <v>6.4375</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="14">
         <f t="shared" si="4"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="14">
         <v>-0.8125</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="14">
         <f t="shared" si="5"/>
         <v>-2.06375E-2</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="14">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="14">
         <f t="shared" si="6"/>
         <v>7.0246849599999994E-2</v>
       </c>
-      <c r="AO11">
-        <v>5</v>
-      </c>
-      <c r="AP11">
+      <c r="AO11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="14">
         <v>9.5625</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="14">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="14">
         <v>-1.75</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="14">
         <f t="shared" si="8"/>
         <v>-4.4449999999999996E-2</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="14">
         <v>2.7656239999999999</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="14">
         <f t="shared" si="9"/>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="E12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
         <v>450</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
         <v>620528</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="14">
         <v>0.16</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="14">
         <v>5.125</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="14">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="14">
         <v>5.125</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="14">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
         <v>254300</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="15">
         <v>192000</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="14">
         <v>2.0265</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="14">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="15">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="15">
         <v>1230</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="15">
         <v>15600</v>
       </c>
-      <c r="AA12">
-        <v>5</v>
-      </c>
-      <c r="AB12">
+      <c r="AA12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14">
         <v>8.6207510000000003</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="14">
         <f t="shared" si="1"/>
         <v>0.21896707539999999</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="14">
         <v>-0.2</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="14">
         <f t="shared" si="2"/>
         <v>-5.0800000000000003E-3</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="14">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH12">
-        <v>5</v>
-      </c>
-      <c r="AI12">
+      <c r="AH12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="14">
         <v>8.6207510000000003</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="14">
         <f t="shared" si="4"/>
         <v>0.21896707539999999</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="14">
         <v>-9.125</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="14">
         <f t="shared" si="5"/>
         <v>-0.23177499999999998</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="14">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO12">
-        <v>6</v>
-      </c>
-      <c r="AP12">
+      <c r="AO12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="14">
         <v>8.9335009999999997</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="14">
         <f t="shared" si="7"/>
         <v>0.22691092539999999</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="14">
         <v>-9.875</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="14">
         <f t="shared" si="8"/>
         <v>-0.25082499999999996</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="14">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="E13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
         <v>450</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>620528</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="14">
         <v>0.16</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="14">
         <v>5.125</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="14">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="14">
         <v>5.125</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="14">
         <f t="shared" si="0"/>
         <v>0.13017499999999999</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
         <v>254300</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="15">
         <v>192000</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="14">
         <v>2.0265</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="14">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="15">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="15">
         <v>1230</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="15">
         <v>15600</v>
       </c>
-      <c r="AA13">
-        <v>5</v>
-      </c>
-      <c r="AB13">
+      <c r="AA13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="14">
         <v>10.5</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="14">
         <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="14">
         <v>-0.2</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="14">
         <f t="shared" si="2"/>
         <v>-5.0800000000000003E-3</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="14">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH13">
-        <v>5</v>
-      </c>
-      <c r="AI13">
+      <c r="AH13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="14">
         <v>10.5</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="14">
         <f t="shared" si="4"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="14">
         <v>-9.125</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="14">
         <f t="shared" si="5"/>
         <v>-0.23177499999999998</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="14">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO13">
-        <v>6</v>
-      </c>
-      <c r="AP13">
+      <c r="AO13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="14">
         <v>9.5625</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="14">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="14">
         <v>-10.53125</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="14">
         <f t="shared" si="8"/>
         <v>-0.26749374999999997</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="14">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="D14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
         <v>450</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
         <v>620528</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="14">
         <v>0.16</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="14">
         <v>6.5</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="14">
         <f t="shared" si="0"/>
         <v>0.1651</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="14">
         <v>6.5</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="14">
         <f t="shared" si="0"/>
         <v>0.1651</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
         <v>254300</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="15">
         <v>192000</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="14">
         <v>2.0265</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="14">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="15">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="15">
         <v>1230</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14" s="15">
         <v>15600</v>
       </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-      <c r="AB14">
+      <c r="AA14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="14">
         <v>10.5</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="14">
         <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="14">
         <v>-11.1875</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="14">
         <f t="shared" si="2"/>
         <v>-0.28416249999999998</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="14">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH14">
-        <v>6</v>
-      </c>
-      <c r="AI14">
+      <c r="AH14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="14">
         <v>10.5</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="14">
         <f t="shared" si="4"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="14">
         <v>-17.75</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="14">
         <f t="shared" si="5"/>
         <v>-0.45084999999999997</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="14">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO14">
-        <v>7</v>
-      </c>
-      <c r="AP14">
+      <c r="AO14" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="14">
         <v>10.375</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="14">
         <f t="shared" si="7"/>
         <v>0.26352500000000001</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="14">
         <v>-18.5</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="14">
         <f t="shared" si="8"/>
         <v>-0.46989999999999998</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="14">
         <v>4.0625</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" s="14">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="D15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
         <v>450</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="17">
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
         <v>620528</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="17">
         <v>0.16</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="17">
         <v>5</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="17">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="17">
         <v>5</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="17">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
         <v>254300</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="18">
         <v>192000</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="17">
         <v>2.0265</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="17">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="18">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="18">
         <v>1230</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="18">
         <v>15600</v>
       </c>
-      <c r="AA15">
-        <v>6</v>
-      </c>
-      <c r="AB15">
+      <c r="AA15" s="17">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="17">
         <v>8.7460000000000004</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="17">
         <f t="shared" si="1"/>
         <v>0.2221484</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="17">
         <v>-10.125</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="17">
         <f t="shared" si="2"/>
         <v>-0.25717499999999999</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="17">
         <v>4.0625</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="17">
         <f t="shared" si="3"/>
         <v>0.1031875</v>
       </c>
-      <c r="AH15">
-        <v>6</v>
-      </c>
-      <c r="AI15">
+      <c r="AH15" s="17">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="17">
         <v>8.7460000000000004</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="17">
         <f t="shared" si="4"/>
         <v>0.2221484</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="17">
         <v>-17.75</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="17">
         <f t="shared" si="5"/>
         <v>-0.45084999999999997</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="17">
         <v>4.0625</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="17">
         <f t="shared" si="6"/>
         <v>0.1031875</v>
       </c>
-      <c r="AO15">
-        <v>7</v>
-      </c>
-      <c r="AP15">
+      <c r="AO15" s="17">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="17">
         <v>9.5625</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="17">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="17">
         <v>-19.132999999999999</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="17">
         <f t="shared" si="8"/>
         <v>-0.48597819999999997</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="17">
         <v>4.0625</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" s="17">
         <f t="shared" si="9"/>
         <v>0.1031875</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="E16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
         <v>450</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20">
         <v>620528</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="20">
         <v>0.16</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="20">
         <v>13</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="20">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="20">
         <v>13</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="20">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20">
+        <v>0</v>
+      </c>
+      <c r="T16" s="21">
         <v>254300</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="21">
         <v>192000</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="20">
         <v>2.0265</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="20">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="21">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="21">
         <v>1230</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="21">
         <v>15600</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="20">
         <f>AB4</f>
         <v>6.4375</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="20">
         <f t="shared" si="1"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="20">
         <f>AD4</f>
         <v>1.6875</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="20">
         <f t="shared" si="2"/>
         <v>4.2862499999999998E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="20">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="20">
         <f t="shared" si="3"/>
         <v>-7.0246849599999994E-2</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
+      <c r="AH16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="20">
         <f>AI4</f>
         <v>-6.4375</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="20">
         <f t="shared" si="4"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="20">
         <f>AK4</f>
         <v>1.6875</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="20">
         <f t="shared" si="5"/>
         <v>4.2862499999999998E-2</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="20">
         <v>-2.7656200000000002</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="20">
         <f t="shared" si="6"/>
         <v>-7.0246747999999998E-2</v>
       </c>
-      <c r="AO16">
-        <v>8</v>
-      </c>
-      <c r="AP16">
+      <c r="AO16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="20">
         <f>AP4</f>
         <v>-9.5625</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="20">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="20">
         <f>AR4</f>
         <v>0.75</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="20">
         <f t="shared" si="8"/>
         <v>1.9049999999999997E-2</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" s="20">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" s="20">
         <f t="shared" si="9"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="E17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
         <v>450</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
         <v>620528</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="23">
         <v>0.16</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="23">
         <v>13</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="23">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="23">
         <v>13</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="23">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
+      <c r="R17" s="23">
+        <v>0</v>
+      </c>
+      <c r="S17" s="23">
+        <v>0</v>
+      </c>
+      <c r="T17" s="24">
         <v>254300</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="24">
         <v>192000</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="23">
         <v>2.0265</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="23">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="24">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="24">
         <v>1230</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="24">
         <v>15600</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
+      <c r="AA17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="23">
         <f t="shared" ref="AB17:AD27" si="11">AB5</f>
         <v>6.4375</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="23">
         <f t="shared" si="1"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="23">
         <f t="shared" si="11"/>
         <v>0.8125</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="23">
         <f t="shared" si="2"/>
         <v>2.06375E-2</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="23">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="23">
         <f t="shared" si="3"/>
         <v>-7.0246849599999994E-2</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
+      <c r="AH17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="23">
         <f t="shared" ref="AI17:AK27" si="12">AI5</f>
         <v>-6.4375</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="23">
         <f t="shared" si="4"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="23">
         <f t="shared" si="12"/>
         <v>0.8125</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" s="23">
         <f t="shared" si="5"/>
         <v>2.06375E-2</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="23">
         <v>-2.7656200000000002</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" s="23">
         <f t="shared" si="6"/>
         <v>-7.0246747999999998E-2</v>
       </c>
-      <c r="AO17">
-        <v>8</v>
-      </c>
-      <c r="AP17">
+      <c r="AO17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="23">
         <f t="shared" ref="AP17:AR27" si="13">AP5</f>
         <v>-9.5625</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" s="23">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" s="23">
         <f t="shared" si="13"/>
         <v>1.75</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" s="23">
         <f t="shared" si="8"/>
         <v>4.4449999999999996E-2</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" s="23">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" s="23">
         <f t="shared" si="9"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="E18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
         <v>450</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
         <v>620528</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="23">
         <v>0.16</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="23">
         <v>7.25</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="23">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="23">
         <v>7.25</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="23">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
+      <c r="R18" s="23">
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <v>0</v>
+      </c>
+      <c r="T18" s="24">
         <v>254300</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="24">
         <v>192000</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="23">
         <v>2.0265</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="23">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="24">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="24">
         <v>1230</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="24">
         <v>15600</v>
       </c>
-      <c r="AA18">
-        <v>8</v>
-      </c>
-      <c r="AB18">
+      <c r="AA18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="23">
         <f t="shared" si="11"/>
         <v>-10.504250000000001</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="23">
         <f t="shared" si="1"/>
         <v>-0.26680795000000002</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="23">
         <f t="shared" si="11"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="23">
         <f t="shared" si="2"/>
         <v>5.8419999999999993E-2</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="23">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH18">
-        <v>8</v>
-      </c>
-      <c r="AI18">
+      <c r="AH18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="23">
         <f t="shared" si="12"/>
         <v>-10.504250000000001</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="23">
         <f t="shared" si="4"/>
         <v>-0.26680795000000002</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="23">
         <f t="shared" si="12"/>
         <v>-4.5625</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="23">
         <f t="shared" si="5"/>
         <v>-0.11588749999999999</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" s="23">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO18">
-        <v>9</v>
-      </c>
-      <c r="AP18">
+      <c r="AO18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="23">
         <f t="shared" si="13"/>
         <v>-10.375</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="23">
         <f t="shared" si="7"/>
         <v>-0.26352500000000001</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" s="23">
         <f t="shared" si="13"/>
         <v>-5.3125</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" s="23">
         <f t="shared" si="8"/>
         <v>-0.13493749999999999</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" s="23">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="C19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
         <v>450</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
         <v>620528</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="23">
         <v>0.16</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="23">
         <v>7.25</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="23">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="23">
         <v>7.25</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="23">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="R19" s="23">
+        <v>0</v>
+      </c>
+      <c r="S19" s="23">
+        <v>0</v>
+      </c>
+      <c r="T19" s="24">
         <v>254300</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="24">
         <v>192000</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="23">
         <v>2.0265</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="23">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="24">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="24">
         <v>1230</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="24">
         <v>15600</v>
       </c>
-      <c r="AA19">
-        <v>8</v>
-      </c>
-      <c r="AB19">
+      <c r="AA19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="23">
         <f t="shared" si="11"/>
         <v>-8.6207499999999992</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="23">
         <f t="shared" si="1"/>
         <v>-0.21896704999999997</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="23">
         <f t="shared" si="11"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="23">
         <f t="shared" si="2"/>
         <v>5.8419999999999993E-2</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="23">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH19">
-        <v>8</v>
-      </c>
-      <c r="AI19">
+      <c r="AH19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="23">
         <f t="shared" si="12"/>
         <v>-8.6207499999999992</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="23">
         <f t="shared" si="4"/>
         <v>-0.21896704999999997</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="23">
         <f t="shared" si="12"/>
         <v>-4.5625</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="23">
         <f t="shared" si="5"/>
         <v>-0.11588749999999999</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" s="23">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO19">
-        <v>9</v>
-      </c>
-      <c r="AP19">
+      <c r="AO19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="23">
         <f t="shared" si="13"/>
         <v>-9.5625</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" s="23">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" s="23">
         <f t="shared" si="13"/>
         <v>-5.9455</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" s="23">
         <f t="shared" si="8"/>
         <v>-0.1510157</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" s="23">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="C20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
         <v>450</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
         <v>620528</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="23">
         <v>0.16</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="23">
         <v>5</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="23">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="23">
         <v>5</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="23">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="R20" s="23">
+        <v>0</v>
+      </c>
+      <c r="S20" s="23">
+        <v>0</v>
+      </c>
+      <c r="T20" s="24">
         <v>254300</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="24">
         <v>192000</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="23">
         <v>2.0265</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="23">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="24">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="24">
         <v>1230</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="24">
         <v>15600</v>
       </c>
-      <c r="AA20">
-        <v>10</v>
-      </c>
-      <c r="AB20">
+      <c r="AA20" s="23">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="23">
         <f t="shared" si="11"/>
         <v>-8.6209989999999994</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="23">
         <f t="shared" si="1"/>
         <v>-0.21897337459999996</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="23">
         <f t="shared" si="11"/>
         <v>-12.1875</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="23">
         <f t="shared" si="2"/>
         <v>-0.30956249999999996</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="23">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH20">
-        <v>10</v>
-      </c>
-      <c r="AI20">
+      <c r="AH20" s="23">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="23">
         <f t="shared" si="12"/>
         <v>-8.6209989999999994</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="23">
         <f t="shared" si="4"/>
         <v>-0.21897337459999996</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="23">
         <f t="shared" si="12"/>
         <v>-20.375</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="23">
         <f t="shared" si="5"/>
         <v>-0.51752500000000001</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="23">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO20">
-        <v>11</v>
-      </c>
-      <c r="AP20">
+      <c r="AO20" s="23">
+        <v>4</v>
+      </c>
+      <c r="AP20" s="23">
         <f t="shared" si="13"/>
         <v>-8.75</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" s="23">
         <f t="shared" si="7"/>
         <v>-0.22225</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="23">
         <f t="shared" si="13"/>
         <v>-21.125</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="23">
         <f t="shared" si="8"/>
         <v>-0.53657500000000002</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" s="23">
         <v>-4.0625</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" s="23">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:47" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="E21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
         <v>450</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
         <v>620528</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="26">
         <v>0.16</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="26">
         <v>6</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="26">
         <f t="shared" si="0"/>
         <v>0.15239999999999998</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="26">
         <v>6</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="26">
         <f t="shared" si="0"/>
         <v>0.15239999999999998</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
+      <c r="R21" s="26">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <v>0</v>
+      </c>
+      <c r="T21" s="27">
         <v>254300</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="27">
         <v>192000</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="26">
         <v>2.0265</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="26">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="27">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="27">
         <v>1230</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="27">
         <v>15600</v>
       </c>
-      <c r="AA21">
-        <v>10</v>
-      </c>
-      <c r="AB21">
+      <c r="AA21" s="26">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="26">
         <f t="shared" si="11"/>
         <v>-10.40625</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="26">
         <f t="shared" si="1"/>
         <v>-0.26431874999999999</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="26">
         <f t="shared" si="11"/>
         <v>-13.651913</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="26">
         <f t="shared" si="2"/>
         <v>-0.34675859019999999</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="26">
         <v>-4.0625</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="26">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH21">
-        <v>10</v>
-      </c>
-      <c r="AI21">
+      <c r="AH21" s="26">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="26">
         <f t="shared" si="12"/>
         <v>-10.40625</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="26">
         <f t="shared" si="4"/>
         <v>-0.26431874999999999</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="26">
         <f t="shared" si="12"/>
         <v>-20.375</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="26">
         <f t="shared" si="5"/>
         <v>-0.51752500000000001</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="26">
         <v>-4.0625</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="26">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO21">
-        <v>11</v>
-      </c>
-      <c r="AP21">
+      <c r="AO21" s="26">
+        <v>4</v>
+      </c>
+      <c r="AP21" s="26">
         <f t="shared" si="13"/>
         <v>-9.5625</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="26">
         <f t="shared" si="7"/>
         <v>-0.24288749999999998</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="26">
         <f t="shared" si="13"/>
         <v>-21.757999999999999</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="26">
         <f t="shared" si="8"/>
         <v>-0.55265319999999996</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="26">
         <v>-4.0625</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" s="26">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="B22" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="29">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29">
         <v>450</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="J22" s="29">
+        <v>0</v>
+      </c>
+      <c r="K22" s="29">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29">
         <v>620528</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="29">
         <v>0.16</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="29">
         <v>13</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="29">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="29">
         <v>13</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="29">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
+      <c r="R22" s="29">
+        <v>0</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0</v>
+      </c>
+      <c r="T22" s="30">
         <v>254300</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="30">
         <v>192000</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="29">
         <v>2.0265</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="29">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="30">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="30">
         <v>1230</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="30">
         <v>15600</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
+      <c r="AA22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="29">
         <f t="shared" si="11"/>
         <v>-6.4375</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="29">
         <f t="shared" si="1"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="29">
         <f t="shared" si="11"/>
         <v>-1.6875</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="29">
         <f t="shared" si="2"/>
         <v>-4.2862499999999998E-2</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="29">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="29">
         <f t="shared" si="3"/>
         <v>-7.0246849599999994E-2</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
+      <c r="AH22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="29">
         <f t="shared" si="12"/>
         <v>6.4375</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="29">
         <f t="shared" si="4"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="29">
         <f t="shared" si="12"/>
         <v>-1.6875</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="29">
         <f t="shared" si="5"/>
         <v>-4.2862499999999998E-2</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="29">
         <v>-2.7656200000000002</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" s="29">
         <f t="shared" si="6"/>
         <v>-7.0246747999999998E-2</v>
       </c>
-      <c r="AO22">
-        <v>12</v>
-      </c>
-      <c r="AP22">
+      <c r="AO22" s="29">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="29">
         <f t="shared" si="13"/>
         <v>9.5625</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" s="29">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" s="29">
         <f t="shared" si="13"/>
         <v>-0.75</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" s="29">
         <f t="shared" si="8"/>
         <v>-1.9049999999999997E-2</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" s="29">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AU22">
+      <c r="AU22" s="29">
         <f t="shared" si="9"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="B23" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
         <v>450</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
         <v>620528</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="32">
         <v>0.16</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="32">
         <v>13</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="32">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="32">
         <v>13</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="32">
         <f t="shared" si="0"/>
         <v>0.33019999999999999</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
+      <c r="R23" s="32">
+        <v>0</v>
+      </c>
+      <c r="S23" s="32">
+        <v>0</v>
+      </c>
+      <c r="T23" s="33">
         <v>254300</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="33">
         <v>192000</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="32">
         <v>2.0265</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="32">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="33">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="33">
         <v>1230</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="33">
         <v>15600</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
+      <c r="AA23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="32">
         <f t="shared" si="11"/>
         <v>-6.4375</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="32">
         <f t="shared" si="1"/>
         <v>-0.16351250000000001</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="32">
         <f t="shared" si="11"/>
         <v>-0.8125</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="32">
         <f t="shared" si="2"/>
         <v>-2.06375E-2</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="32">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="32">
         <f t="shared" si="3"/>
         <v>-7.0246849599999994E-2</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
+      <c r="AH23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="32">
         <f t="shared" si="12"/>
         <v>6.4375</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="32">
         <f t="shared" si="4"/>
         <v>0.16351250000000001</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="32">
         <f t="shared" si="12"/>
         <v>-0.8125</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="32">
         <f t="shared" si="5"/>
         <v>-2.06375E-2</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" s="32">
         <v>-2.7656200000000002</v>
       </c>
-      <c r="AN23">
+      <c r="AN23" s="32">
         <f t="shared" si="6"/>
         <v>-7.0246747999999998E-2</v>
       </c>
-      <c r="AO23">
-        <v>12</v>
-      </c>
-      <c r="AP23">
+      <c r="AO23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="32">
         <f t="shared" si="13"/>
         <v>9.5625</v>
       </c>
-      <c r="AQ23">
+      <c r="AQ23" s="32">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR23">
+      <c r="AR23" s="32">
         <f t="shared" si="13"/>
         <v>-1.75</v>
       </c>
-      <c r="AS23">
+      <c r="AS23" s="32">
         <f t="shared" si="8"/>
         <v>-4.4449999999999996E-2</v>
       </c>
-      <c r="AT23">
+      <c r="AT23" s="32">
         <v>-2.7656239999999999</v>
       </c>
-      <c r="AU23">
+      <c r="AU23" s="32">
         <f t="shared" si="9"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="E24" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
         <v>450</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
         <v>620528</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="32">
         <v>0.16</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="32">
         <v>7.25</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="32">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="32">
         <v>7.25</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="32">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
+      <c r="R24" s="32">
+        <v>0</v>
+      </c>
+      <c r="S24" s="32">
+        <v>0</v>
+      </c>
+      <c r="T24" s="33">
         <v>254300</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="33">
         <v>192000</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="32">
         <v>2.0265</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="32">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="33">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="33">
         <v>1230</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="33">
         <v>15600</v>
       </c>
-      <c r="AA24">
-        <v>12</v>
-      </c>
-      <c r="AB24">
+      <c r="AA24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="32">
         <f t="shared" si="11"/>
         <v>8.6207510000000003</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="32">
         <f t="shared" si="1"/>
         <v>0.21896707539999999</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="32">
         <f t="shared" si="11"/>
         <v>-0.2</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="32">
         <f t="shared" si="2"/>
         <v>-5.0800000000000003E-3</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="32">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH24">
-        <v>12</v>
-      </c>
-      <c r="AI24">
+      <c r="AH24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="32">
         <f t="shared" si="12"/>
         <v>8.6207510000000003</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="32">
         <f t="shared" si="4"/>
         <v>0.21896707539999999</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="32">
         <f t="shared" si="12"/>
         <v>-9.125</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="32">
         <f t="shared" si="5"/>
         <v>-0.23177499999999998</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="32">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO24">
-        <v>13</v>
-      </c>
-      <c r="AP24">
+      <c r="AO24" s="32">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="32">
         <f t="shared" si="13"/>
         <v>8.9335009999999997</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ24" s="32">
         <f t="shared" si="7"/>
         <v>0.22691092539999999</v>
       </c>
-      <c r="AR24">
+      <c r="AR24" s="32">
         <f t="shared" si="13"/>
         <v>-9.875</v>
       </c>
-      <c r="AS24">
+      <c r="AS24" s="32">
         <f t="shared" si="8"/>
         <v>-0.25082499999999996</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AU24">
+      <c r="AU24" s="32">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="E25" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
         <v>450</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
         <v>620528</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="32">
         <v>0.16</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="32">
         <v>7.25</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="32">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="32">
         <v>7.25</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="32">
         <f t="shared" si="0"/>
         <v>0.18414999999999998</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
+      <c r="R25" s="32">
+        <v>0</v>
+      </c>
+      <c r="S25" s="32">
+        <v>0</v>
+      </c>
+      <c r="T25" s="33">
         <v>254300</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="33">
         <v>192000</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="32">
         <v>2.0265</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="32">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="33">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="33">
         <v>1230</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25" s="33">
         <v>15600</v>
       </c>
-      <c r="AA25">
-        <v>12</v>
-      </c>
-      <c r="AB25">
+      <c r="AA25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="32">
         <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="32">
         <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="32">
         <f t="shared" si="11"/>
         <v>-0.2</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="32">
         <f t="shared" si="2"/>
         <v>-5.0800000000000003E-3</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="32">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH25">
-        <v>12</v>
-      </c>
-      <c r="AI25">
+      <c r="AH25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="32">
         <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="32">
         <f t="shared" si="4"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="32">
         <f t="shared" si="12"/>
         <v>-9.125</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="32">
         <f t="shared" si="5"/>
         <v>-0.23177499999999998</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AN25">
+      <c r="AN25" s="32">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO25">
-        <v>13</v>
-      </c>
-      <c r="AP25">
+      <c r="AO25" s="32">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="32">
         <f t="shared" si="13"/>
         <v>9.5625</v>
       </c>
-      <c r="AQ25">
+      <c r="AQ25" s="32">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR25">
+      <c r="AR25" s="32">
         <f t="shared" si="13"/>
         <v>-10.53125</v>
       </c>
-      <c r="AS25">
+      <c r="AS25" s="32">
         <f t="shared" si="8"/>
         <v>-0.26749374999999997</v>
       </c>
-      <c r="AT25">
+      <c r="AT25" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AU25">
+      <c r="AU25" s="32">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <f t="shared" si="10"/>
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="B26" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
         <v>450</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
         <v>620528</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="32">
         <v>0.16</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="32">
         <v>5</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="32">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="32">
         <v>5</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="32">
         <f t="shared" si="0"/>
         <v>0.127</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26" s="2">
+      <c r="R26" s="32">
+        <v>0</v>
+      </c>
+      <c r="S26" s="32">
+        <v>0</v>
+      </c>
+      <c r="T26" s="33">
         <v>254300</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="33">
         <v>192000</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="32">
         <v>2.0265</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="32">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="33">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="33">
         <v>1230</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="33">
         <v>15600</v>
       </c>
-      <c r="AA26">
-        <v>13</v>
-      </c>
-      <c r="AB26">
+      <c r="AA26" s="32">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="32">
         <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="32">
         <f t="shared" si="1"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="32">
         <f t="shared" si="11"/>
         <v>-11.1875</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="32">
         <f t="shared" si="2"/>
         <v>-0.28416249999999998</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="32">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH26">
-        <v>13</v>
-      </c>
-      <c r="AI26">
+      <c r="AH26" s="32">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="32">
         <f t="shared" si="12"/>
         <v>10.5</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="32">
         <f t="shared" si="4"/>
         <v>0.26669999999999999</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="32">
         <f t="shared" si="12"/>
         <v>-17.75</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="32">
         <f t="shared" si="5"/>
         <v>-0.45084999999999997</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="32">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO26">
-        <v>14</v>
-      </c>
-      <c r="AP26">
+      <c r="AO26" s="32">
+        <v>3</v>
+      </c>
+      <c r="AP26" s="32">
         <f t="shared" si="13"/>
         <v>10.375</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="32">
         <f t="shared" si="7"/>
         <v>0.26352500000000001</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="32">
         <f t="shared" si="13"/>
         <v>-18.5</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="32">
         <f t="shared" si="8"/>
         <v>-0.46989999999999998</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="32">
         <v>-4.0625</v>
       </c>
-      <c r="AU26">
+      <c r="AU26" s="32">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:47" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34">
         <f t="shared" si="10"/>
         <v>62</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="B27" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
         <v>450</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="35">
+        <v>0</v>
+      </c>
+      <c r="K27" s="35">
+        <v>0</v>
+      </c>
+      <c r="L27" s="35">
         <v>620528</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="35">
         <v>0.16</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="35">
         <v>6</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="35">
         <f t="shared" si="0"/>
         <v>0.15239999999999998</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="35">
         <v>6</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="35">
         <f t="shared" si="0"/>
         <v>0.15239999999999998</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27" s="2">
+      <c r="R27" s="35">
+        <v>0</v>
+      </c>
+      <c r="S27" s="35">
+        <v>0</v>
+      </c>
+      <c r="T27" s="36">
         <v>254300</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="36">
         <v>192000</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="35">
         <v>2.0265</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="35">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="36">
         <v>-3.3100000000000002E-4</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="36">
         <v>1230</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="36">
         <v>15600</v>
       </c>
-      <c r="AA27">
-        <v>13</v>
-      </c>
-      <c r="AB27">
+      <c r="AA27" s="35">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="35">
         <f t="shared" si="11"/>
         <v>8.7460000000000004</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="35">
         <f t="shared" si="1"/>
         <v>0.2221484</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="35">
         <f t="shared" si="11"/>
         <v>-10.125</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="35">
         <f t="shared" si="2"/>
         <v>-0.25717499999999999</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="35">
         <v>-4.0625</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="35">
         <f t="shared" si="3"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AH27">
-        <v>13</v>
-      </c>
-      <c r="AI27">
+      <c r="AH27" s="35">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="35">
         <f t="shared" si="12"/>
         <v>8.7460000000000004</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="35">
         <f t="shared" si="4"/>
         <v>0.2221484</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="35">
         <f t="shared" si="12"/>
         <v>-17.75</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="35">
         <f t="shared" si="5"/>
         <v>-0.45084999999999997</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="35">
         <v>-4.0625</v>
       </c>
-      <c r="AN27">
+      <c r="AN27" s="35">
         <f t="shared" si="6"/>
         <v>-0.1031875</v>
       </c>
-      <c r="AO27">
-        <v>14</v>
-      </c>
-      <c r="AP27">
+      <c r="AO27" s="35">
+        <v>3</v>
+      </c>
+      <c r="AP27" s="35">
         <f t="shared" si="13"/>
         <v>9.5625</v>
       </c>
-      <c r="AQ27">
+      <c r="AQ27" s="35">
         <f t="shared" si="7"/>
         <v>0.24288749999999998</v>
       </c>
-      <c r="AR27">
+      <c r="AR27" s="35">
         <f t="shared" si="13"/>
         <v>-19.132999999999999</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" s="35">
         <f t="shared" si="8"/>
         <v>-0.48597819999999997</v>
       </c>
-      <c r="AT27">
+      <c r="AT27" s="35">
         <v>-4.0625</v>
       </c>
-      <c r="AU27">
+      <c r="AU27" s="35">
         <f t="shared" si="9"/>
         <v>-0.1031875</v>
       </c>
@@ -4722,13 +4877,18 @@
     <mergeCell ref="N1:O2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -4737,11 +4897,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
